--- a/工作簿处理.xlsx
+++ b/工作簿处理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDFD381-46ED-4EAB-8C2A-189E571D9CEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616486FD-F12C-48EA-9719-4382EFCC5276}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,25 +339,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
